--- a/Inferno/Logs/TimeLine For Project.xlsx
+++ b/Inferno/Logs/TimeLine For Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsal\OneDrive\Desktop\TechWiz-IOT-2023-main\Inferno\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706C079-102E-49E9-9485-DF778C9197DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C5D68-D5A3-46C1-B554-B1E5A49DD8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5775EAC4-CAA9-41D3-91D9-F05EC1B50EFC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Documentation</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Project Phases For Infernos</t>
+  </si>
+  <si>
+    <t>Day3-4</t>
+  </si>
+  <si>
+    <t>Day4-5</t>
   </si>
 </sst>
 </file>
@@ -241,6 +247,57 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -251,57 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,454 +686,513 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F52E711-F0E2-4DB6-93E9-3E7A2D9CAAF8}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="2:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="2:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="19"/>
     </row>
     <row r="27" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="C3:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:H23"/>
     <mergeCell ref="I30:J31"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:H5"/>
@@ -1144,47 +1209,6 @@
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:H29"/>
     <mergeCell ref="E30:H31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="E8:H9"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="C3:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="K26:L27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C6:J31">
